--- a/MTG-AUT/data/LoginWithCustomer1.xlsx
+++ b/MTG-AUT/data/LoginWithCustomer1.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="9720"/>
+    <workbookView windowWidth="23040" windowHeight="9287"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -35,30 +22,23 @@
     <t>password</t>
   </si>
   <si>
-    <t>mngr581449</t>
+    <t>0201030273</t>
   </si>
   <si>
-    <t>pUsarem1@</t>
+    <t>89892728</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,155 +500,156 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1011,7 +992,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A4:B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1028,10 +1009,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
